--- a/Chen Lunchao/Train information/ModelTrainHistory.xlsx
+++ b/Chen Lunchao/Train information/ModelTrainHistory.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2024FinTechathon_AI\Chen Lunchao\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2024FinTechathon_AI\Chen Lunchao\Train information\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8495B8A-5673-4B42-A4AF-C04AFE90C9AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B60C64-5AA5-4946-B1AD-5ABA2E634A99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11715" yWindow="1110" windowWidth="22860" windowHeight="13530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9060" yWindow="3150" windowWidth="26925" windowHeight="16455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="19">
   <si>
     <t>Epoch</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,6 +96,10 @@
   </si>
   <si>
     <t>Vgg16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Epoch average time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -196,7 +189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -221,6 +214,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -248,15 +250,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -272,6 +266,7780 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+              <a:t>Train</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1800" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" baseline="0"/>
+              <a:t>history accuracy</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>EffucuentNet_SGD</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.7204301075268817E-3"/>
+                  <c:y val="2.3552504879984223E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-B8E8-479D-8618-05A3100CBCFB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="1.8318614906654398E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-B8E8-479D-8618-05A3100CBCFB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.032258064516129E-2"/>
+                  <c:y val="3.4020284826643876E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-B8E8-479D-8618-05A3100CBCFB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.0967741935483996E-2"/>
+                  <c:y val="3.1403339839978943E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-B8E8-479D-8618-05A3100CBCFB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0" formatCode="0.0000">
+                  <c:v>0.82199999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.90849999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93630000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.94950000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.95709999999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.9617</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B8E8-479D-8618-05A3100CBCFB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>CNN_SGD</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.9247311827956989E-2"/>
+                  <c:y val="-3.1403339839978964E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-B8E8-479D-8618-05A3100CBCFB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$16:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.7248</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.72719999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.76429999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.82540000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.85980000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.87649999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B8E8-479D-8618-05A3100CBCFB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>CNN_Adam</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.7419354838709681E-2"/>
+                  <c:y val="-1.3084724933324569E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-B8E8-479D-8618-05A3100CBCFB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.1612903225807085E-3"/>
+                  <c:y val="-2.3552504879984223E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-B8E8-479D-8618-05A3100CBCFB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.6021505376344086E-3"/>
+                  <c:y val="-2.3552504879984223E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-B8E8-479D-8618-05A3100CBCFB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.9247311827956989E-2"/>
+                  <c:y val="-1.5701669919989388E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-B8E8-479D-8618-05A3100CBCFB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.1290322580645161E-2"/>
+                  <c:y val="-2.0935559893319213E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-B8E8-479D-8618-05A3100CBCFB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$16:$L$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.82269999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.86009999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.72719999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.72719999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.72719999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.72719999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B8E8-479D-8618-05A3100CBCFB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>EffucuentNet_Adam</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.1612903225806452E-2"/>
+                  <c:y val="-3.1403339839978964E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-B8E8-479D-8618-05A3100CBCFB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$5:$L$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="0.0000">
+                  <c:v>0.88400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96209999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9718</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B8E8-479D-8618-05A3100CBCFB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1883257407"/>
+        <c:axId val="1883246367"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1883257407"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1883246367"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1883246367"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.70000000000000007"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1883257407"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+              <a:t>Validation</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1800" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" baseline="0"/>
+              <a:t>history accuracy</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.2440064119501846E-2"/>
+          <c:y val="0.12580783441454549"/>
+          <c:w val="0.88892458912434602"/>
+          <c:h val="0.74618821566341764"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>EffucuentNet_SGD</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.2953020134228186E-2"/>
+                  <c:y val="3.1238910130999935E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-847A-4EE3-8E5B-60056A208ABA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.2527964205816556E-2"/>
+                  <c:y val="2.839900920999994E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000016-847A-4EE3-8E5B-60056A208ABA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.252796420581649E-2"/>
+                  <c:y val="2.5559108288999946E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000015-847A-4EE3-8E5B-60056A208ABA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.5055928411633111E-2"/>
+                  <c:y val="3.1238910130999935E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-847A-4EE3-8E5B-60056A208ABA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.6845637583892749E-2"/>
+                  <c:y val="2.8399009209999888E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-847A-4EE3-8E5B-60056A208ABA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.0111856823266222E-2"/>
+                  <c:y val="2.839900920999994E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-847A-4EE3-8E5B-60056A208ABA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$5:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.85699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.90100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>0.92279999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>0.93259999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>0.93210000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.93899999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-847A-4EE3-8E5B-60056A208ABA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>CNN_SGD</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.3266219239373602E-2"/>
+                  <c:y val="-3.4078811051999926E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-847A-4EE3-8E5B-60056A208ABA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.5794183445190191E-2"/>
+                  <c:y val="-4.8278315656999894E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000010-847A-4EE3-8E5B-60056A208ABA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.0111856823266285E-2"/>
+                  <c:y val="-4.5438414735999903E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000011-847A-4EE3-8E5B-60056A208ABA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.4429530201342289E-2"/>
+                  <c:y val="-1.7039405526000067E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000012-847A-4EE3-8E5B-60056A208ABA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.3691275167785234E-2"/>
+                  <c:y val="-3.4078811051999926E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000013-847A-4EE3-8E5B-60056A208ABA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.3691275167785366E-2"/>
+                  <c:y val="-4.8278315656999894E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000014-847A-4EE3-8E5B-60056A208ABA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$16:$G$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.60809999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.60809999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.61270000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.73570000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.81579999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.0000">
+                  <c:v>0.83199999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-847A-4EE3-8E5B-60056A208ABA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>CNN_Adam</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.5480984340044739E-2"/>
+                  <c:y val="3.9758612893999914E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-847A-4EE3-8E5B-60056A208ABA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.2953020134228186E-2"/>
+                  <c:y val="3.1238910130999831E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-847A-4EE3-8E5B-60056A208ABA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.5794183445190225E-2"/>
+                  <c:y val="3.9758612893999914E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-847A-4EE3-8E5B-60056A208ABA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.9373601789709174E-2"/>
+                  <c:y val="4.2598513814999912E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-847A-4EE3-8E5B-60056A208ABA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.9373601789709306E-2"/>
+                  <c:y val="3.4078811051999926E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-847A-4EE3-8E5B-60056A208ABA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.474272930648783E-2"/>
+                  <c:y val="3.4078811051999926E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-847A-4EE3-8E5B-60056A208ABA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Q$16:$Q$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.73250000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.60809999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.60809999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.60809999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.60809999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.60809999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-847A-4EE3-8E5B-60056A208ABA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>EffucuentNet_Adam</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.1476510067114079E-2"/>
+                  <c:y val="-2.2719207367999979E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000017-847A-4EE3-8E5B-60056A208ABA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.5794183445190156E-2"/>
+                  <c:y val="-2.8399009209999965E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-847A-4EE3-8E5B-60056A208ABA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.2953020134228186E-2"/>
+                  <c:y val="-3.1238910130999935E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000018-847A-4EE3-8E5B-60056A208ABA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Q$5:$Q$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="0.0000">
+                  <c:v>0.93100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.95950000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-847A-4EE3-8E5B-60056A208ABA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1883257407"/>
+        <c:axId val="1883246367"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1883257407"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1883246367"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1883246367"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.55000000000000004"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1883257407"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+              <a:t>Train</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1800" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" baseline="0"/>
+              <a:t>history mean loss</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>EffucuentNet_SGD</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.5806451612903226E-2"/>
+                  <c:y val="-1.3084724933324569E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-9428-4BB1-8E51-C1489984CD84}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.602150537634471E-3"/>
+                  <c:y val="-1.0467779946659655E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-9428-4BB1-8E51-C1489984CD84}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.2043010752688234E-2"/>
+                  <c:y val="-2.6169449866649232E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000010-9428-4BB1-8E51-C1489984CD84}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.6021505376344086E-3"/>
+                  <c:y val="-2.6169449866649139E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-9428-4BB1-8E51-C1489984CD84}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.5483870967741935E-2"/>
+                  <c:y val="-2.0935559893319407E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-9428-4BB1-8E51-C1489984CD84}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.1612903225807709E-3"/>
+                  <c:y val="2.6169449866649138E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-9428-4BB1-8E51-C1489984CD84}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$5:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.36041558628421377</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20042505867788166</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14870159262112523</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12093189169097215</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10396551569090021</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.2646604776364577E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-9428-4BB1-8E51-C1489984CD84}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>CNN_SGD</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.612903225806452E-2"/>
+                  <c:y val="-1.8318614906654491E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-9428-4BB1-8E51-C1489984CD84}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.5806451612903288E-2"/>
+                  <c:y val="-2.6169449866649139E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000012-9428-4BB1-8E51-C1489984CD84}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.5483870967741998E-2"/>
+                  <c:y val="-7.8508349599947409E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000013-9428-4BB1-8E51-C1489984CD84}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-3.1403339839978867E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000016-9428-4BB1-8E51-C1489984CD84}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-2.8786394853314148E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000015-9428-4BB1-8E51-C1489984CD84}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$16:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.59109999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.58050000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.47320000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.35970000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.28660000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.253</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-9428-4BB1-8E51-C1489984CD84}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>CNN_Adam</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.2688172043010756E-2"/>
+                  <c:y val="-5.2338899733298277E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000014-9428-4BB1-8E51-C1489984CD84}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.4408602150537697E-2"/>
+                  <c:y val="-2.355250487998432E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-9428-4BB1-8E51-C1489984CD84}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.0645161290322581E-2"/>
+                  <c:y val="-3.1403339839978964E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-9428-4BB1-8E51-C1489984CD84}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.9247311827956989E-2"/>
+                  <c:y val="-3.9254174799973708E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-9428-4BB1-8E51-C1489984CD84}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.645161290322581E-2"/>
+                  <c:y val="-3.1403339839978964E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-9428-4BB1-8E51-C1489984CD84}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$16:$N$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.5833999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2858</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.58650000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.58650000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.58660000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.58679999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-9428-4BB1-8E51-C1489984CD84}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>EffucuentNet_Adam</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.9892473118279573E-2"/>
+                  <c:y val="2.3552504879984223E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000011-9428-4BB1-8E51-C1489984CD84}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.8172043010752688E-2"/>
+                  <c:y val="2.093555989331931E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-9428-4BB1-8E51-C1489984CD84}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$5:$N$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.24977443113180117</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.2760513307813819E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0452426701358803E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-9428-4BB1-8E51-C1489984CD84}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1883257407"/>
+        <c:axId val="1883246367"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1883257407"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1883246367"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1883246367"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1883257407"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+              <a:t>Validation</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1800" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" baseline="0"/>
+              <a:t>history mean loss</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>EffucuentNet_SGD</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$5:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.30957693953658982</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22767011065598827</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.18996454117503209</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1709971266124595</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.18180289784190254</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.15415418475270526</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-87E6-4C20-9953-D4A8DD3437A6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>CNN_SGD</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.3957056980780691E-2"/>
+                  <c:y val="-4.2721523877974531E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-87E6-4C20-9953-D4A8DD3437A6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.2735551604436667E-2"/>
+                  <c:y val="-3.2253743931314881E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-87E6-4C20-9953-D4A8DD3437A6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$16:$I$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0" formatCode="0.0000">
+                  <c:v>0.70640000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.69799999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.0000">
+                  <c:v>1.4701</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.0000">
+                  <c:v>0.53480000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.0000">
+                  <c:v>0.3795</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.0000">
+                  <c:v>0.3523</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-87E6-4C20-9953-D4A8DD3437A6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>CNN_Adam</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.578501397002794E-2"/>
+                  <c:y val="2.5319045775313225E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-87E6-4C20-9953-D4A8DD3437A6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.3380712894759123E-2"/>
+                  <c:y val="3.3169880735307966E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-87E6-4C20-9953-D4A8DD3437A6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.8219422572178606E-2"/>
+                  <c:y val="-2.4402908971320136E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-87E6-4C20-9953-D4A8DD3437A6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.2305444077554825E-2"/>
+                  <c:y val="3.0552935748642956E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000010-87E6-4C20-9953-D4A8DD3437A6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.5101143002286008E-2"/>
+                  <c:y val="3.0552935748643054E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000011-87E6-4C20-9953-D4A8DD3437A6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$16:$S$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.52480000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.70899999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7026</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.70740000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.70250000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.70489999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000012-87E6-4C20-9953-D4A8DD3437A6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>EffucuentNet_Adam</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.7144153754974177E-2"/>
+                  <c:y val="3.3169880735307966E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000013-87E6-4C20-9953-D4A8DD3437A6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.3703293539920413E-2"/>
+                  <c:y val="2.5319045775313128E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000014-87E6-4C20-9953-D4A8DD3437A6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.5312505291677883E-3"/>
+                  <c:y val="1.223432084198856E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000016-87E6-4C20-9953-D4A8DD3437A6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$5:$S$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.1977593690774592</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15066943816103198</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.10055327994130953</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000015-87E6-4C20-9953-D4A8DD3437A6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1883257407"/>
+        <c:axId val="1883246367"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1883257407"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1883246367"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1883246367"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1883257407"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>The average time of each round</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>EffucuentNet_SGD</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3361.4666666666667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-75DE-4639-B51F-3E3AB226B2B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>CNN_SGD</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3208.5499999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-75DE-4639-B51F-3E3AB226B2B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>CNN_Adam</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3197.35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000012-75DE-4639-B51F-3E3AB226B2B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>EffucuentNet_Adam</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3343.0333333333342</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000015-75DE-4639-B51F-3E3AB226B2B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1883257407"/>
+        <c:axId val="1883246367"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1883257407"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1883246367"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1883246367"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="3400"/>
+          <c:min val="3150"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1883257407"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>933450</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9C7A6AB-BDF4-4AD9-6B88-31B51CA90A04}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>247651</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>66676</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>14288</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B9AD07F-5679-44D1-A9D9-FB0C4E7D5A22}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>809625</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="图表 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9C4C84F-D195-40C6-BEB0-1F387D2AF491}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="图表 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C685153-5D76-4A18-80AC-6F8DE7069B80}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{293017F7-FDEB-454E-82AF-4739A582F416}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.00598</cdr:x>
+      <cdr:y>0.01996</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.14051</cdr:x>
+      <cdr:y>0.07539</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="文本框 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCF832E0-2F04-F5FC-8786-479009E8BC52}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="38100" y="85725"/>
+          <a:ext cx="857250" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" kern="1200"/>
+            <a:t>Second</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" kern="1200"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -539,8 +8307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="S76" sqref="S76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -558,84 +8326,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="11"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="16"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="16" t="s">
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="17"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="22"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="12" t="s">
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="12" t="s">
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="12" t="s">
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="13"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="18"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -864,36 +8632,36 @@
       <c r="J7" s="8">
         <v>301</v>
       </c>
-      <c r="K7" s="22">
+      <c r="K7" s="13">
         <v>3</v>
       </c>
-      <c r="L7" s="20">
+      <c r="L7" s="11">
         <v>0.9718</v>
       </c>
-      <c r="M7" s="20">
+      <c r="M7" s="11">
         <v>23503</v>
       </c>
-      <c r="N7" s="23">
+      <c r="N7" s="14">
         <f>M7/$D$33</f>
         <v>7.0452426701358803E-2</v>
       </c>
-      <c r="O7" s="21">
+      <c r="O7" s="12">
         <v>3047.1</v>
       </c>
-      <c r="P7" s="22">
+      <c r="P7" s="13">
         <v>3</v>
       </c>
-      <c r="Q7" s="20">
+      <c r="Q7" s="11">
         <v>0.95950000000000002</v>
       </c>
-      <c r="R7" s="20">
+      <c r="R7" s="11">
         <v>6579</v>
       </c>
-      <c r="S7" s="23">
+      <c r="S7" s="14">
         <f>R7/$D$34</f>
         <v>0.10055327994130953</v>
       </c>
-      <c r="T7" s="21">
+      <c r="T7" s="12">
         <v>301.2</v>
       </c>
     </row>
@@ -982,36 +8750,36 @@
       <c r="T9" s="8"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A10" s="22">
+      <c r="A10" s="13">
         <v>6</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="11">
         <v>0.9617</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="11">
         <v>30907</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="14">
         <f t="shared" si="0"/>
         <v>9.2646604776364577E-2</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="12">
         <v>3097.6</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10" s="13">
         <v>6</v>
       </c>
-      <c r="G10" s="23">
+      <c r="G10" s="14">
         <v>0.93899999999999995</v>
       </c>
-      <c r="H10" s="20">
+      <c r="H10" s="11">
         <v>10086</v>
       </c>
-      <c r="I10" s="23">
+      <c r="I10" s="14">
         <f t="shared" si="1"/>
         <v>0.15415418475270526</v>
       </c>
-      <c r="J10" s="21">
+      <c r="J10" s="12">
         <v>303.60000000000002</v>
       </c>
       <c r="K10" s="1">
@@ -1023,85 +8791,101 @@
       </c>
       <c r="T10" s="8"/>
     </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="24">
+        <f>SUM(E5:E10,J5:J10)/6</f>
+        <v>3361.4666666666667</v>
+      </c>
+      <c r="K11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="24">
+        <f>SUM(O5:O10,T5:T10)/3</f>
+        <v>3343.0333333333342</v>
+      </c>
+    </row>
     <row r="12" spans="1:20" ht="18" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="11"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="16"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="16" t="s">
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="16"/>
-      <c r="S13" s="16"/>
-      <c r="T13" s="17"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="22"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="12" t="s">
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="18" t="s">
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="12" t="s">
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="13"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="18"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
@@ -1196,34 +8980,34 @@
       <c r="J16" s="8">
         <v>309.10000000000002</v>
       </c>
-      <c r="K16" s="19">
+      <c r="K16" s="10">
         <v>1</v>
       </c>
-      <c r="L16" s="20">
+      <c r="L16" s="11">
         <v>0.82269999999999999</v>
       </c>
-      <c r="M16" s="20">
+      <c r="M16" s="11">
         <v>528235</v>
       </c>
-      <c r="N16" s="20">
+      <c r="N16" s="11">
         <v>1.5833999999999999</v>
       </c>
-      <c r="O16" s="21">
+      <c r="O16" s="12">
         <v>2867.4</v>
       </c>
-      <c r="P16" s="22">
+      <c r="P16" s="13">
         <v>1</v>
       </c>
-      <c r="Q16" s="20">
+      <c r="Q16" s="11">
         <v>0.73250000000000004</v>
       </c>
-      <c r="R16" s="20">
+      <c r="R16" s="11">
         <v>34337</v>
       </c>
-      <c r="S16" s="20">
+      <c r="S16" s="11">
         <v>0.52480000000000004</v>
       </c>
-      <c r="T16" s="21">
+      <c r="T16" s="12">
         <v>307.8</v>
       </c>
     </row>
@@ -1476,34 +9260,34 @@
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A21" s="22">
+      <c r="A21" s="13">
         <v>6</v>
       </c>
-      <c r="B21" s="20">
+      <c r="B21" s="11">
         <v>0.87649999999999995</v>
       </c>
-      <c r="C21" s="20">
+      <c r="C21" s="11">
         <v>84395</v>
       </c>
-      <c r="D21" s="23">
+      <c r="D21" s="14">
         <v>0.253</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E21" s="12">
         <v>2877.7</v>
       </c>
-      <c r="F21" s="22">
+      <c r="F21" s="13">
         <v>6</v>
       </c>
-      <c r="G21" s="23">
+      <c r="G21" s="14">
         <v>0.83199999999999996</v>
       </c>
-      <c r="H21" s="20">
+      <c r="H21" s="11">
         <v>23050</v>
       </c>
-      <c r="I21" s="23">
+      <c r="I21" s="14">
         <v>0.3523</v>
       </c>
-      <c r="J21" s="21">
+      <c r="J21" s="12">
         <v>307.39999999999998</v>
       </c>
       <c r="K21" s="9">
@@ -1537,85 +9321,101 @@
         <v>307.10000000000002</v>
       </c>
     </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="24">
+        <f>SUM(E16:E21,J16:J21)/6</f>
+        <v>3208.5499999999997</v>
+      </c>
+      <c r="K22" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22" s="24">
+        <f>SUM(O16:O21,T16:T21)/6</f>
+        <v>3197.35</v>
+      </c>
+    </row>
     <row r="23" spans="1:20" ht="18" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="10"/>
-      <c r="T23" s="10"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="15"/>
+      <c r="T23" s="15"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="16" t="s">
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="16"/>
-      <c r="P24" s="16"/>
-      <c r="Q24" s="16"/>
-      <c r="R24" s="16"/>
-      <c r="S24" s="16"/>
-      <c r="T24" s="17"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="21"/>
+      <c r="R24" s="21"/>
+      <c r="S24" s="21"/>
+      <c r="T24" s="22"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12" t="s">
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="18" t="s">
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="12" t="s">
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="Q25" s="12"/>
-      <c r="R25" s="12"/>
-      <c r="S25" s="12"/>
-      <c r="T25" s="13"/>
+      <c r="Q25" s="17"/>
+      <c r="R25" s="17"/>
+      <c r="S25" s="17"/>
+      <c r="T25" s="18"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
@@ -1843,5 +9643,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Chen Lunchao/Train information/ModelTrainHistory.xlsx
+++ b/Chen Lunchao/Train information/ModelTrainHistory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2024FinTechathon_AI\Chen Lunchao\Train information\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B60C64-5AA5-4946-B1AD-5ABA2E634A99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC039795-0515-4B6D-8EC5-255B908A4068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9060" yWindow="3150" windowWidth="26925" windowHeight="16455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="3720" windowWidth="20610" windowHeight="9600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -223,22 +223,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -250,7 +242,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4440,7 +4440,7 @@
               <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>The average time of each round</a:t>
+              <a:t>The average time of each epoch</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800"/>
           </a:p>
@@ -8307,8 +8307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="S76" sqref="S76"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q77" sqref="Q77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8326,54 +8326,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="16"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="24"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="21" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="22"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="20"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
@@ -8382,28 +8382,28 @@
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
-      <c r="E3" s="18"/>
+      <c r="E3" s="22"/>
       <c r="F3" s="17" t="s">
         <v>5</v>
       </c>
       <c r="G3" s="17"/>
       <c r="H3" s="17"/>
       <c r="I3" s="17"/>
-      <c r="J3" s="18"/>
+      <c r="J3" s="22"/>
       <c r="K3" s="17" t="s">
         <v>4</v>
       </c>
       <c r="L3" s="17"/>
       <c r="M3" s="17"/>
       <c r="N3" s="17"/>
-      <c r="O3" s="18"/>
+      <c r="O3" s="22"/>
       <c r="P3" s="17" t="s">
         <v>5</v>
       </c>
       <c r="Q3" s="17"/>
       <c r="R3" s="17"/>
       <c r="S3" s="17"/>
-      <c r="T3" s="18"/>
+      <c r="T3" s="22"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -8795,67 +8795,67 @@
       <c r="A11" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="24">
+      <c r="B11" s="15">
         <f>SUM(E5:E10,J5:J10)/6</f>
         <v>3361.4666666666667</v>
       </c>
       <c r="K11" t="s">
         <v>18</v>
       </c>
-      <c r="L11" s="24">
+      <c r="L11" s="15">
         <f>SUM(O5:O10,T5:T10)/3</f>
         <v>3343.0333333333342</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="18" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="15"/>
-      <c r="T12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="24"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="21" t="s">
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="21"/>
-      <c r="T13" s="22"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="20"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
@@ -8864,28 +8864,28 @@
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
-      <c r="E14" s="18"/>
+      <c r="E14" s="22"/>
       <c r="F14" s="17" t="s">
         <v>5</v>
       </c>
       <c r="G14" s="17"/>
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="23" t="s">
+      <c r="J14" s="22"/>
+      <c r="K14" s="21" t="s">
         <v>4</v>
       </c>
       <c r="L14" s="17"/>
       <c r="M14" s="17"/>
       <c r="N14" s="17"/>
-      <c r="O14" s="18"/>
+      <c r="O14" s="22"/>
       <c r="P14" s="17" t="s">
         <v>5</v>
       </c>
       <c r="Q14" s="17"/>
       <c r="R14" s="17"/>
       <c r="S14" s="17"/>
-      <c r="T14" s="18"/>
+      <c r="T14" s="22"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
@@ -9325,67 +9325,67 @@
       <c r="A22" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="24">
+      <c r="B22" s="15">
         <f>SUM(E16:E21,J16:J21)/6</f>
         <v>3208.5499999999997</v>
       </c>
       <c r="K22" t="s">
         <v>18</v>
       </c>
-      <c r="L22" s="24">
+      <c r="L22" s="15">
         <f>SUM(O16:O21,T16:T21)/6</f>
         <v>3197.35</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="18" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="15"/>
-      <c r="R23" s="15"/>
-      <c r="S23" s="15"/>
-      <c r="T23" s="15"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="16"/>
+      <c r="S23" s="16"/>
+      <c r="T23" s="16"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="21" t="s">
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="21"/>
-      <c r="Q24" s="21"/>
-      <c r="R24" s="21"/>
-      <c r="S24" s="21"/>
-      <c r="T24" s="22"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="19"/>
+      <c r="S24" s="19"/>
+      <c r="T24" s="20"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" s="17" t="s">
@@ -9402,20 +9402,20 @@
       <c r="H25" s="17"/>
       <c r="I25" s="17"/>
       <c r="J25" s="17"/>
-      <c r="K25" s="23" t="s">
+      <c r="K25" s="21" t="s">
         <v>4</v>
       </c>
       <c r="L25" s="17"/>
       <c r="M25" s="17"/>
       <c r="N25" s="17"/>
-      <c r="O25" s="18"/>
+      <c r="O25" s="22"/>
       <c r="P25" s="17" t="s">
         <v>5</v>
       </c>
       <c r="Q25" s="17"/>
       <c r="R25" s="17"/>
       <c r="S25" s="17"/>
-      <c r="T25" s="18"/>
+      <c r="T25" s="22"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
@@ -9619,6 +9619,20 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="K3:O3"/>
+    <mergeCell ref="K2:T2"/>
+    <mergeCell ref="P3:T3"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="A12:T12"/>
+    <mergeCell ref="K13:T13"/>
+    <mergeCell ref="K14:O14"/>
+    <mergeCell ref="P14:T14"/>
     <mergeCell ref="A23:T23"/>
     <mergeCell ref="A25:E25"/>
     <mergeCell ref="F25:J25"/>
@@ -9626,20 +9640,6 @@
     <mergeCell ref="K24:T24"/>
     <mergeCell ref="K25:O25"/>
     <mergeCell ref="P25:T25"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="A12:T12"/>
-    <mergeCell ref="K13:T13"/>
-    <mergeCell ref="K14:O14"/>
-    <mergeCell ref="P14:T14"/>
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="K3:O3"/>
-    <mergeCell ref="K2:T2"/>
-    <mergeCell ref="P3:T3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
